--- a/2.2-CS-4393.001/Grades.xlsx
+++ b/2.2-CS-4393.001/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDSpring2019\2.2-CS-4393.001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A429960-7618-41B1-A172-D60E354B7576}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4A9E1A-EAB8-4E8C-BC31-610EE043564B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4830" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="1680" windowWidth="16290" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -673,7 +673,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +795,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.39666666666666672</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
@@ -816,7 +816,7 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22">
         <f>SUM(C7:H7)</f>
-        <v>1</v>
+        <v>0.99666666666666681</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="5"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="18">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="20"/>

--- a/2.2-CS-4393.001/Grades.xlsx
+++ b/2.2-CS-4393.001/Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDSpring2019\2.2-CS-4393.001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4A9E1A-EAB8-4E8C-BC31-610EE043564B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70439335-439A-4350-BB01-22B3D3DC2A21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="1680" windowWidth="16290" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6795" yWindow="2580" windowWidth="21165" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -673,7 +673,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +795,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>0.39666666666666672</v>
+        <v>0.36333333333333334</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
@@ -816,7 +816,7 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22">
         <f>SUM(C7:H7)</f>
-        <v>0.99666666666666681</v>
+        <v>0.96333333333333337</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="5"/>
@@ -870,7 +870,7 @@
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="20"/>

--- a/2.2-CS-4393.001/Grades.xlsx
+++ b/2.2-CS-4393.001/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDSpring2019\2.2-CS-4393.001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70439335-439A-4350-BB01-22B3D3DC2A21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A429960-7618-41B1-A172-D60E354B7576}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="2580" windowWidth="21165" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4830" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -673,7 +673,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +795,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>0.36333333333333334</v>
+        <v>0.4</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
@@ -816,7 +816,7 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22">
         <f>SUM(C7:H7)</f>
-        <v>0.96333333333333337</v>
+        <v>1</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="5"/>
@@ -853,7 +853,7 @@
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="20"/>
@@ -870,7 +870,7 @@
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="20"/>

--- a/2.2-CS-4393.001/Grades.xlsx
+++ b/2.2-CS-4393.001/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDSpring2019\2.2-CS-4393.001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A429960-7618-41B1-A172-D60E354B7576}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD868DF2-AFAD-4481-90A8-663C2ACFEFFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4830" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -673,7 +673,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +795,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.38333333333333336</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
@@ -803,7 +803,7 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
@@ -816,7 +816,7 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22">
         <f>SUM(C7:H7)</f>
-        <v>1</v>
+        <v>0.96333333333333337</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="5"/>
@@ -834,7 +834,7 @@
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="20"/>

--- a/2.2-CS-4393.001/Grades.xlsx
+++ b/2.2-CS-4393.001/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDSpring2019\2.2-CS-4393.001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD868DF2-AFAD-4481-90A8-663C2ACFEFFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8CF3A7-F202-4D9D-96B4-67CF5D204716}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -673,7 +673,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,16 +807,16 @@
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22">
         <f>SUM(C7:H7)</f>
-        <v>0.96333333333333337</v>
+        <v>0.90233333333333343</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="5"/>
@@ -837,10 +837,10 @@
         <v>0.8</v>
       </c>
       <c r="G8" s="10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H8" s="10">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>

--- a/2.2-CS-4393.001/Grades.xlsx
+++ b/2.2-CS-4393.001/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDSpring2019\2.2-CS-4393.001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8CF3A7-F202-4D9D-96B4-67CF5D204716}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65399DE1-AB18-4C1A-BABB-5C285270369E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="825" windowWidth="20610" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -253,23 +253,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,12 +310,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -673,7 +661,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,393 +673,393 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>0.4</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>0</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>0.1</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>0.2</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>0.3</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
         <f>SUM(C5:H5)</f>
         <v>1</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="2" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <f t="shared" ref="C6:H6" si="0">COUNT(C8:C21)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22" t="s">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="22"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <f t="shared" ref="C7:H7" si="1">IF(C6&lt;&gt;0,IF(C5&lt;&gt;0,(SUM(C8:C21)/C6)*C5,0), 0)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <f t="shared" si="1"/>
         <v>0.38333333333333336</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <f t="shared" si="1"/>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="G7" s="9">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="1"/>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="H7" s="9">
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
         <f>SUM(C7:H7)</f>
-        <v>0.90233333333333343</v>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="5"/>
+        <v>0.81333333333333346</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="21">
+      <c r="C8" s="17"/>
+      <c r="D8" s="19">
         <v>1</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.93</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="2"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="18">
+      <c r="C9" s="18"/>
+      <c r="D9" s="16">
         <v>0.75</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="2"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="18">
+      <c r="C10" s="18"/>
+      <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="2"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="18">
+      <c r="C11" s="18"/>
+      <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="2"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>5</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="18">
+      <c r="C12" s="18"/>
+      <c r="D12" s="16">
         <v>1</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="2"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>6</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="18">
+      <c r="C13" s="14"/>
+      <c r="D13" s="16">
         <v>1</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="2"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>7</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="2"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>8</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="2"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>9</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="2"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>10</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="2"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>11</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="2"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>12</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="2"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>13</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="2"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>14</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="2"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2.2-CS-4393.001/Grades.xlsx
+++ b/2.2-CS-4393.001/Grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDSpring2019\2.2-CS-4393.001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65399DE1-AB18-4C1A-BABB-5C285270369E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1F30C5-6854-4276-A655-5D8BAFECBEE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6420" yWindow="825" windowWidth="20610" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,7 +749,7 @@
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
@@ -783,7 +783,7 @@
       </c>
       <c r="D7" s="7">
         <f t="shared" si="1"/>
-        <v>0.38333333333333336</v>
+        <v>0.38</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
@@ -799,12 +799,12 @@
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
-        <v>0.16500000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
         <f>SUM(C7:H7)</f>
-        <v>0.81333333333333346</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -828,7 +828,7 @@
         <v>0.9</v>
       </c>
       <c r="H8" s="8">
-        <v>0.55000000000000004</v>
+        <v>0.52</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -908,9 +908,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="16">
-        <v>1</v>
-      </c>
+      <c r="D13" s="16"/>
       <c r="E13" s="10"/>
       <c r="F13" s="18"/>
       <c r="G13" s="10"/>

--- a/2.2-CS-4393.001/Grades.xlsx
+++ b/2.2-CS-4393.001/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDSpring2019\2.2-CS-4393.001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1F30C5-6854-4276-A655-5D8BAFECBEE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C555E6-F999-4622-95F4-CBD797B5A1E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6420" yWindow="825" windowWidth="20610" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -799,12 +799,12 @@
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
-        <v>0.156</v>
+        <v>0.06</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
         <f>SUM(C7:H7)</f>
-        <v>0.80100000000000005</v>
+        <v>0.70500000000000007</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -828,7 +828,7 @@
         <v>0.9</v>
       </c>
       <c r="H8" s="8">
-        <v>0.52</v>
+        <v>0.2</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>

--- a/2.2-CS-4393.001/Grades.xlsx
+++ b/2.2-CS-4393.001/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDSpring2019\2.2-CS-4393.001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C555E6-F999-4622-95F4-CBD797B5A1E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC127DF-A857-444B-97A6-AA2FD90EAA03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6420" yWindow="825" windowWidth="20610" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,7 +661,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,12 +799,12 @@
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
         <f>SUM(C7:H7)</f>
-        <v>0.70500000000000007</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -828,7 +828,7 @@
         <v>0.9</v>
       </c>
       <c r="H8" s="8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>

--- a/2.2-CS-4393.001/Grades.xlsx
+++ b/2.2-CS-4393.001/Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDSpring2019\2.2-CS-4393.001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC127DF-A857-444B-97A6-AA2FD90EAA03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F06237-6F0F-498A-BE5F-2DD5E27F5168}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="825" windowWidth="20610" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -661,7 +661,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,16 +795,16 @@
       </c>
       <c r="G7" s="7">
         <f t="shared" si="1"/>
-        <v>0.18000000000000002</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
         <f>SUM(C7:H7)</f>
-        <v>0.64500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -825,10 +825,10 @@
         <v>0.85</v>
       </c>
       <c r="G8" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H8" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>

--- a/2.2-CS-4393.001/Grades.xlsx
+++ b/2.2-CS-4393.001/Grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDSpring2019\2.2-CS-4393.001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F06237-6F0F-498A-BE5F-2DD5E27F5168}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B446E25-6E09-46E9-A724-95CC8C8AEBCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,7 +661,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,12 +799,12 @@
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.20400000000000001</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
         <f>SUM(C7:H7)</f>
-        <v>0.7</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -828,7 +828,7 @@
         <v>0.8</v>
       </c>
       <c r="H8" s="8">
-        <v>0.25</v>
+        <v>0.68</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>

--- a/2.2-CS-4393.001/Grades.xlsx
+++ b/2.2-CS-4393.001/Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDSpring2019\2.2-CS-4393.001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B446E25-6E09-46E9-A724-95CC8C8AEBCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F6719C-4148-4B5E-8374-FBD3E8442AE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="960" windowWidth="20610" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +795,7 @@
       </c>
       <c r="G7" s="7">
         <f t="shared" si="1"/>
-        <v>0.16000000000000003</v>
+        <v>0.17600000000000002</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
@@ -804,7 +804,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1">
         <f>SUM(C7:H7)</f>
-        <v>0.82899999999999996</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -825,7 +825,7 @@
         <v>0.85</v>
       </c>
       <c r="G8" s="8">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="H8" s="8">
         <v>0.68</v>
